--- a/data/reporting_bias table_2024.01.26.xlsx
+++ b/data/reporting_bias table_2024.01.26.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641686A1-C095-0244-870C-92BD71491881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B21B6-A8DE-5044-82D5-AEC3E67BFFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24460" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{AFB5D0D2-F574-A541-B966-F5F755AA74BF}"/>
+    <workbookView xWindow="20900" yWindow="-19100" windowWidth="34880" windowHeight="21100" xr2:uid="{AFB5D0D2-F574-A541-B966-F5F755AA74BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Mortality due to any cause</t>
   </si>
   <si>
-    <t>Nausea or vomitting</t>
-  </si>
-  <si>
     <t>Weight increase (dichotomous)</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>&lt; (reported as dichotomous outcome)</t>
   </si>
   <si>
-    <t>? (well tolerated, no clinically significant or relevant abnormalities in ECG, blood pressure measurmenet, laboratory safety parameters)</t>
-  </si>
-  <si>
     <t>&lt; (probably not measured)</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>&lt; (measured with UPDRS paRT III scale, no differences with placebo)</t>
   </si>
   <si>
-    <t>? (no information, no clinically meaningul changes in ECG, laboratory values)</t>
-  </si>
-  <si>
     <t>? (neuropsychiatric events seemed to more frequent in ulotaront vs. placebo, including hallucinations and confusational state)</t>
   </si>
   <si>
@@ -251,18 +242,9 @@
     <t>&lt; (frequency of extapyramidal side-effects was low and similar to placebo)</t>
   </si>
   <si>
-    <t>? (no infromation, NNH for all adverse events &gt;=10)</t>
-  </si>
-  <si>
     <t>? (probably not measured)</t>
   </si>
   <si>
-    <t>? (no clinically meaningul changes in safety parameters)</t>
-  </si>
-  <si>
-    <t>? (no clinically meaningul changes in safety parameters, unclear if measured)</t>
-  </si>
-  <si>
     <t>? (no clinically significant findings in laboratory parameters, vital signs, ECG, physical or neurological examinations)</t>
   </si>
   <si>
@@ -327,6 +309,24 @@
   </si>
   <si>
     <t>Narcolepsy-cataplexy</t>
+  </si>
+  <si>
+    <t>Nausea or vomiting</t>
+  </si>
+  <si>
+    <t>? (well tolerated, no clinically significant or relevant abnormalities in ECG, blood pressure measurement, laboratory safety parameters)</t>
+  </si>
+  <si>
+    <t>? (no clinically meaningful changes in safety parameters, unclear if measured)</t>
+  </si>
+  <si>
+    <t>? (no clinically meaningful changes in safety parameters)</t>
+  </si>
+  <si>
+    <t>? (no information, no clinically meaningful changes in ECG, laboratory values)</t>
+  </si>
+  <si>
+    <t>? (no information, NNH for all adverse events &gt;=10)</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -490,7 +490,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,10 +827,10 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,7 +838,7 @@
     <col min="1" max="1" width="28.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="23.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="21.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" style="2" customWidth="1"/>
@@ -853,8 +852,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>82</v>
+      <c r="A1" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -863,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>2</v>
@@ -902,69 +901,69 @@
         <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AG1" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E2" s="5">
         <v>16</v>
@@ -1056,16 +1055,16 @@
     </row>
     <row r="3" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="5">
         <v>49</v>
@@ -1157,16 +1156,16 @@
     </row>
     <row r="4" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E4" s="5">
         <v>24</v>
@@ -1214,60 +1213,60 @@
         <v>35</v>
       </c>
       <c r="T4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Z4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="AD4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E5" s="5">
         <v>64</v>
@@ -1359,16 +1358,16 @@
     </row>
     <row r="6" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E6" s="10">
         <v>48</v>
@@ -1460,16 +1459,16 @@
     </row>
     <row r="7" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E7" s="5">
         <v>48</v>
@@ -1561,16 +1560,16 @@
     </row>
     <row r="8" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E8" s="5">
         <v>164</v>
@@ -1594,84 +1593,84 @@
         <v>35</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E9" s="5">
         <v>13</v>
@@ -1763,16 +1762,16 @@
     </row>
     <row r="10" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E10" s="5">
         <v>105</v>
@@ -1820,40 +1819,40 @@
         <v>35</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AF10" s="7" t="s">
         <v>30</v>
@@ -1864,16 +1863,16 @@
     </row>
     <row r="11" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E11" s="5">
         <v>52</v>
@@ -1965,16 +1964,16 @@
     </row>
     <row r="12" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E12" s="5">
         <v>18</v>
@@ -1998,10 +1997,10 @@
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>30</v>
@@ -2013,70 +2012,70 @@
         <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AF12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AG12" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AH12" s="7"/>
     </row>
     <row r="13" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E13" s="5">
         <v>68</v>
@@ -2100,7 +2099,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>30</v>
@@ -2124,31 +2123,31 @@
         <v>35</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Z13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC13" s="7" t="s">
         <v>30</v>
@@ -2157,27 +2156,27 @@
         <v>30</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AF13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E14" s="10">
         <v>36</v>
@@ -2269,16 +2268,16 @@
     </row>
     <row r="15" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="E15" s="10">
         <v>39</v>
@@ -2293,10 +2292,10 @@
         <v>30</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>30</v>
@@ -2320,26 +2319,26 @@
         <v>30</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Z15" s="7" t="s">
         <v>30</v>
@@ -2351,10 +2350,10 @@
         <v>33</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="AE15" s="7" t="s">
         <v>30</v>
@@ -2368,16 +2367,16 @@
     </row>
     <row r="16" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E16" s="5">
         <v>245</v>
@@ -2398,7 +2397,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -2428,7 +2427,7 @@
         <v>30</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>30</v>
@@ -2452,7 +2451,7 @@
         <v>30</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD16" s="7" t="s">
         <v>30</v>
@@ -2469,16 +2468,16 @@
     </row>
     <row r="17" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E17" s="5">
         <v>463</v>
@@ -2499,7 +2498,7 @@
         <v>32</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2508,76 +2507,76 @@
         <v>33</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E18" s="5">
         <v>462</v>
@@ -2598,7 +2597,7 @@
         <v>32</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>30</v>
@@ -2607,74 +2606,74 @@
         <v>33</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E19" s="5">
         <v>287</v>
@@ -2716,7 +2715,7 @@
         <v>30</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>30</v>
@@ -2766,16 +2765,16 @@
     </row>
     <row r="20" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E20" s="5">
         <v>128</v>
@@ -2790,13 +2789,13 @@
         <v>33</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>33</v>
@@ -2867,16 +2866,16 @@
     </row>
     <row r="21" spans="1:33" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E21" s="5">
         <v>475</v>

--- a/data/reporting_bias table_2024.01.26.xlsx
+++ b/data/reporting_bias table_2024.01.26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B21B6-A8DE-5044-82D5-AEC3E67BFFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F3B42-EA79-8747-B1D4-4ABE14340E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20900" yWindow="-19100" windowWidth="34880" windowHeight="21100" xr2:uid="{AFB5D0D2-F574-A541-B966-F5F755AA74BF}"/>
+    <workbookView xWindow="17460" yWindow="-21100" windowWidth="34880" windowHeight="21100" xr2:uid="{AFB5D0D2-F574-A541-B966-F5F755AA74BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="99">
   <si>
     <t>Study name</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Dizziness</t>
   </si>
   <si>
-    <t>&lt; (prolactin elevation as dichotomous outcome)</t>
-  </si>
-  <si>
     <t>? (reported as generally safe and well tolerated)</t>
   </si>
   <si>
@@ -218,18 +215,9 @@
     <t>&lt; (reported as dichotomous outcome)</t>
   </si>
   <si>
-    <t>&lt; (probably not measured)</t>
-  </si>
-  <si>
     <t>Anticholinergic</t>
   </si>
   <si>
-    <t>&lt; (reported as continuous)</t>
-  </si>
-  <si>
-    <t>&lt; (measured with UPDRS paRT III scale, no differences with placebo)</t>
-  </si>
-  <si>
     <t>? (neuropsychiatric events seemed to more frequent in ulotaront vs. placebo, including hallucinations and confusational state)</t>
   </si>
   <si>
@@ -327,6 +315,24 @@
   </si>
   <si>
     <t>? (no information, NNH for all adverse events &gt;=10)</t>
+  </si>
+  <si>
+    <t>~ (prolactin elevation as dichotomous outcome)</t>
+  </si>
+  <si>
+    <t>~ (reported as dichotomous outcome)</t>
+  </si>
+  <si>
+    <t>~ (probably not measured)</t>
+  </si>
+  <si>
+    <t>~ (measured with UPDRS paRT III scale, no differences with placebo)</t>
+  </si>
+  <si>
+    <t>~ (reported as continuous)</t>
+  </si>
+  <si>
+    <t>~ (frequency of extapyramidal side-effects was low and similar to placebo)</t>
   </si>
 </sst>
 </file>
@@ -827,10 +833,10 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -862,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>2</v>
@@ -901,7 +907,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>42</v>
@@ -949,21 +955,21 @@
         <v>55</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5">
         <v>16</v>
@@ -1055,16 +1061,16 @@
     </row>
     <row r="3" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" s="5">
         <v>49</v>
@@ -1156,16 +1162,16 @@
     </row>
     <row r="4" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5">
         <v>24</v>
@@ -1213,60 +1219,60 @@
         <v>35</v>
       </c>
       <c r="T4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="Z4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5">
         <v>64</v>
@@ -1358,16 +1364,16 @@
     </row>
     <row r="6" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10">
         <v>48</v>
@@ -1459,16 +1465,16 @@
     </row>
     <row r="7" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5">
         <v>48</v>
@@ -1560,16 +1566,16 @@
     </row>
     <row r="8" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5">
         <v>164</v>
@@ -1593,84 +1599,84 @@
         <v>35</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5">
         <v>13</v>
@@ -1762,16 +1768,16 @@
     </row>
     <row r="10" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E10" s="5">
         <v>105</v>
@@ -1819,40 +1825,40 @@
         <v>35</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Z10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AF10" s="7" t="s">
         <v>30</v>
@@ -1863,16 +1869,16 @@
     </row>
     <row r="11" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5">
         <v>52</v>
@@ -1964,16 +1970,16 @@
     </row>
     <row r="12" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="5">
         <v>18</v>
@@ -1997,10 +2003,10 @@
         <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>30</v>
@@ -2012,70 +2018,70 @@
         <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AF12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AG12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AH12" s="7"/>
     </row>
     <row r="13" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13" s="5">
         <v>68</v>
@@ -2099,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>30</v>
@@ -2123,31 +2129,31 @@
         <v>35</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC13" s="7" t="s">
         <v>30</v>
@@ -2156,27 +2162,27 @@
         <v>30</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AG13" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E14" s="10">
         <v>36</v>
@@ -2268,16 +2274,16 @@
     </row>
     <row r="15" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E15" s="10">
         <v>39</v>
@@ -2292,10 +2298,10 @@
         <v>30</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>30</v>
@@ -2319,26 +2325,26 @@
         <v>30</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Z15" s="7" t="s">
         <v>30</v>
@@ -2350,10 +2356,10 @@
         <v>33</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AE15" s="7" t="s">
         <v>30</v>
@@ -2367,16 +2373,16 @@
     </row>
     <row r="16" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5">
         <v>245</v>
@@ -2397,7 +2403,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -2427,7 +2433,7 @@
         <v>30</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>30</v>
@@ -2451,7 +2457,7 @@
         <v>30</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="AD16" s="7" t="s">
         <v>30</v>
@@ -2468,16 +2474,16 @@
     </row>
     <row r="17" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="5">
         <v>463</v>
@@ -2498,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2507,76 +2513,76 @@
         <v>33</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" s="5">
         <v>462</v>
@@ -2597,7 +2603,7 @@
         <v>32</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>30</v>
@@ -2606,74 +2612,74 @@
         <v>33</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5">
         <v>287</v>
@@ -2715,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>30</v>
@@ -2765,16 +2771,16 @@
     </row>
     <row r="20" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="E20" s="5">
         <v>128</v>
@@ -2789,13 +2795,13 @@
         <v>33</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>33</v>
@@ -2866,16 +2872,16 @@
     </row>
     <row r="21" spans="1:33" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E21" s="5">
         <v>475</v>
